--- a/4-5-2017/Experimental Setup_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_4-5-2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zena\Desktop\Physics\4-5-2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husseinz\Desktop\Physics\4-5-2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="set current" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -193,6 +193,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -313,7 +314,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -410,7 +411,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -513,7 +514,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -622,7 +623,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -731,7 +732,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -840,7 +841,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -955,7 +956,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -1070,7 +1071,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -1185,7 +1186,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2D90-49B7-A4FE-205CC0B69EC3}"/>
             </c:ext>
@@ -1199,11 +1200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387129152"/>
-        <c:axId val="387131120"/>
+        <c:axId val="161150272"/>
+        <c:axId val="161140192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387129152"/>
+        <c:axId val="161150272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,6 +1250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1315,12 +1317,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387131120"/>
+        <c:crossAx val="161140192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387131120"/>
+        <c:axId val="161140192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,6 +1368,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1432,7 +1435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387129152"/>
+        <c:crossAx val="161150272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1446,6 +1449,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2088,7 +2092,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,9 +2380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>

--- a/4-5-2017/Experimental Setup_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_4-5-2017.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Load</t>
   </si>
@@ -56,6 +56,21 @@
   <si>
     <t>Actual current</t>
   </si>
+  <si>
+    <t>%  Load</t>
+  </si>
+  <si>
+    <t>Desired current (A)</t>
+  </si>
+  <si>
+    <t>Motor speed (rpm)</t>
+  </si>
+  <si>
+    <t>Load torque (ft-lb)</t>
+  </si>
+  <si>
+    <t>Measured current (A)</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +92,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -136,11 +166,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,11 +301,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,7 +457,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$10,'set current'!$C$19,'set current'!$C$28,'set current'!$C$37,'set current'!$C$46,'set current'!$C$64)</c:f>
+              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -320,7 +484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
+              <c:f>('set current'!$E$10,'set current'!$E$19,'set current'!$E$28,'set current'!$E$37,'set current'!$E$46,'set current'!$E$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -396,7 +560,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$9,'set current'!$C$18,'set current'!$C$27,'set current'!$C$36,'set current'!$C$45,'set current'!$C$63,'set current'!$C$81)</c:f>
+              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -426,7 +590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
+              <c:f>('set current'!$E$9,'set current'!$E$18,'set current'!$E$27,'set current'!$E$36,'set current'!$E$45,'set current'!$E$63,'set current'!$E$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -505,7 +669,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$8,'set current'!$C$17,'set current'!$C$26,'set current'!$C$35,'set current'!$C$44,'set current'!$C$53,'set current'!$C$62,'set current'!$C$80)</c:f>
+              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -538,7 +702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
+              <c:f>('set current'!$E$8,'set current'!$E$17,'set current'!$E$26,'set current'!$E$35,'set current'!$E$44,'set current'!$E$53,'set current'!$E$62,'set current'!$E$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -620,7 +784,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$7,'set current'!$C$16,'set current'!$C$25,'set current'!$C$34,'set current'!$C$43,'set current'!$C$52,'set current'!$C$61,'set current'!$C$70,'set current'!$C$79)</c:f>
+              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -656,7 +820,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
+              <c:f>('set current'!$E$7,'set current'!$E$16,'set current'!$E$25,'set current'!$E$34,'set current'!$E$43,'set current'!$E$52,'set current'!$E$61,'set current'!$E$70,'set current'!$E$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -741,7 +905,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$6,'set current'!$C$15,'set current'!$C$24,'set current'!$C$33,'set current'!$C$42,'set current'!$C$51,'set current'!$C$60,'set current'!$C$69,'set current'!$C$78)</c:f>
+              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -777,7 +941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
+              <c:f>('set current'!$E$6,'set current'!$E$15,'set current'!$E$24,'set current'!$E$33,'set current'!$E$42,'set current'!$E$51,'set current'!$E$60,'set current'!$E$69,'set current'!$E$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -862,7 +1026,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$5,'set current'!$C$14,'set current'!$C$23,'set current'!$C$32,'set current'!$C$41,'set current'!$C$50,'set current'!$C$59,'set current'!$C$68,'set current'!$C$77)</c:f>
+              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -898,7 +1062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
+              <c:f>('set current'!$E$5,'set current'!$E$14,'set current'!$E$23,'set current'!$E$32,'set current'!$E$41,'set current'!$E$50,'set current'!$E$59,'set current'!$E$68,'set current'!$E$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -989,7 +1153,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$4,'set current'!$C$13,'set current'!$C$22,'set current'!$C$31,'set current'!$C$40,'set current'!$C$49,'set current'!$C$58,'set current'!$C$67,'set current'!$C$76)</c:f>
+              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1025,7 +1189,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
+              <c:f>('set current'!$E$4,'set current'!$E$13,'set current'!$E$22,'set current'!$E$31,'set current'!$E$40,'set current'!$E$49,'set current'!$E$58,'set current'!$E$67,'set current'!$E$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1116,7 +1280,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$3,'set current'!$C$12,'set current'!$C$21,'set current'!$C$30,'set current'!$C$39,'set current'!$C$48,'set current'!$C$57,'set current'!$C$66,'set current'!$C$75)</c:f>
+              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1152,7 +1316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
+              <c:f>('set current'!$E$3,'set current'!$E$12,'set current'!$E$21,'set current'!$E$30,'set current'!$E$39,'set current'!$E$48,'set current'!$E$57,'set current'!$E$66,'set current'!$E$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1201,11 +1365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149528320"/>
-        <c:axId val="149528880"/>
+        <c:axId val="153688304"/>
+        <c:axId val="153688864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149528320"/>
+        <c:axId val="153688304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,12 +1482,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149528880"/>
+        <c:crossAx val="153688864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149528880"/>
+        <c:axId val="153688864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149528320"/>
+        <c:crossAx val="153688304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1672,7 +1836,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$8,'set current'!$C$17,'set current'!$C$26,'set current'!$C$35,'set current'!$C$44,'set current'!$C$53,'set current'!$C$62,'set current'!$C$80)</c:f>
+              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1705,7 +1869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
+              <c:f>('set current'!$E$8,'set current'!$E$17,'set current'!$E$26,'set current'!$E$35,'set current'!$E$44,'set current'!$E$53,'set current'!$E$62,'set current'!$E$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1751,11 +1915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159437632"/>
-        <c:axId val="159438192"/>
+        <c:axId val="158409440"/>
+        <c:axId val="158410000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159437632"/>
+        <c:axId val="158409440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +2031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159438192"/>
+        <c:crossAx val="158410000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159438192"/>
+        <c:axId val="158410000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159437632"/>
+        <c:crossAx val="158409440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2229,7 +2393,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$9,'set current'!$C$18,'set current'!$C$27,'set current'!$C$36,'set current'!$C$45,'set current'!$C$63,'set current'!$C$81)</c:f>
+              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2259,7 +2423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
+              <c:f>('set current'!$E$9,'set current'!$E$18,'set current'!$E$27,'set current'!$E$36,'set current'!$E$45,'set current'!$E$63,'set current'!$E$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2302,11 +2466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159440432"/>
-        <c:axId val="159440992"/>
+        <c:axId val="158412240"/>
+        <c:axId val="158412800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159440432"/>
+        <c:axId val="158412240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,12 +2582,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159440992"/>
+        <c:crossAx val="158412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159440992"/>
+        <c:axId val="158412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159440432"/>
+        <c:crossAx val="158412240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2655,7 +2819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2771,7 +2934,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$10,'set current'!$C$19,'set current'!$C$28,'set current'!$C$37,'set current'!$C$46,'set current'!$C$64)</c:f>
+              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2798,7 +2961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
+              <c:f>('set current'!$E$10,'set current'!$E$19,'set current'!$E$28,'set current'!$E$37,'set current'!$E$46,'set current'!$E$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2838,11 +3001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159443232"/>
-        <c:axId val="159443792"/>
+        <c:axId val="158415040"/>
+        <c:axId val="158415600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159443232"/>
+        <c:axId val="158415040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,7 +3051,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2955,12 +3117,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159443792"/>
+        <c:crossAx val="158415600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159443792"/>
+        <c:axId val="158415600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +3168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3073,7 +3234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159443232"/>
+        <c:crossAx val="158415040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3087,7 +3248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3194,7 +3354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3274,7 +3433,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$10,'set current'!$C$19,'set current'!$C$28,'set current'!$C$37,'set current'!$C$46,'set current'!$C$64)</c:f>
+              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3301,7 +3460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
+              <c:f>('set current'!$E$10,'set current'!$E$19,'set current'!$E$28,'set current'!$E$37,'set current'!$E$46,'set current'!$E$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3377,7 +3536,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$9,'set current'!$C$18,'set current'!$C$27,'set current'!$C$36,'set current'!$C$45,'set current'!$C$63,'set current'!$C$81)</c:f>
+              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3407,7 +3566,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
+              <c:f>('set current'!$E$9,'set current'!$E$18,'set current'!$E$27,'set current'!$E$36,'set current'!$E$45,'set current'!$E$63,'set current'!$E$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3486,7 +3645,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$8,'set current'!$C$17,'set current'!$C$26,'set current'!$C$35,'set current'!$C$44,'set current'!$C$53,'set current'!$C$62,'set current'!$C$80)</c:f>
+              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3519,7 +3678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
+              <c:f>('set current'!$E$8,'set current'!$E$17,'set current'!$E$26,'set current'!$E$35,'set current'!$E$44,'set current'!$E$53,'set current'!$E$62,'set current'!$E$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3601,7 +3760,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$7,'set current'!$C$16,'set current'!$C$25,'set current'!$C$34,'set current'!$C$43,'set current'!$C$52,'set current'!$C$61,'set current'!$C$70,'set current'!$C$79)</c:f>
+              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3637,7 +3796,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
+              <c:f>('set current'!$E$7,'set current'!$E$16,'set current'!$E$25,'set current'!$E$34,'set current'!$E$43,'set current'!$E$52,'set current'!$E$61,'set current'!$E$70,'set current'!$E$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3722,7 +3881,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$6,'set current'!$C$15,'set current'!$C$24,'set current'!$C$33,'set current'!$C$42,'set current'!$C$51,'set current'!$C$60,'set current'!$C$69,'set current'!$C$78)</c:f>
+              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3758,7 +3917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
+              <c:f>('set current'!$E$6,'set current'!$E$15,'set current'!$E$24,'set current'!$E$33,'set current'!$E$42,'set current'!$E$51,'set current'!$E$60,'set current'!$E$69,'set current'!$E$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3843,7 +4002,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$5,'set current'!$C$14,'set current'!$C$23,'set current'!$C$32,'set current'!$C$41,'set current'!$C$50,'set current'!$C$59,'set current'!$C$68,'set current'!$C$77)</c:f>
+              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3879,7 +4038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
+              <c:f>('set current'!$E$5,'set current'!$E$14,'set current'!$E$23,'set current'!$E$32,'set current'!$E$41,'set current'!$E$50,'set current'!$E$59,'set current'!$E$68,'set current'!$E$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3970,7 +4129,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$4,'set current'!$C$13,'set current'!$C$22,'set current'!$C$31,'set current'!$C$40,'set current'!$C$49,'set current'!$C$58,'set current'!$C$67,'set current'!$C$76)</c:f>
+              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4006,7 +4165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
+              <c:f>('set current'!$E$4,'set current'!$E$13,'set current'!$E$22,'set current'!$E$31,'set current'!$E$40,'set current'!$E$49,'set current'!$E$58,'set current'!$E$67,'set current'!$E$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4097,7 +4256,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$3,'set current'!$C$12,'set current'!$C$21,'set current'!$C$30,'set current'!$C$39,'set current'!$C$48,'set current'!$C$57,'set current'!$C$66,'set current'!$C$75)</c:f>
+              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4133,7 +4292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
+              <c:f>('set current'!$E$3,'set current'!$E$12,'set current'!$E$21,'set current'!$E$30,'set current'!$E$39,'set current'!$E$48,'set current'!$E$57,'set current'!$E$66,'set current'!$E$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4208,7 +4367,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$2,'set current'!$C$11,'set current'!$C$20,'set current'!$C$29,'set current'!$C$38,'set current'!$C$47,'set current'!$C$56,'set current'!$C$65,'set current'!$C$74)</c:f>
+              <c:f>('set current'!$D$2,'set current'!$D$11,'set current'!$D$20,'set current'!$D$29,'set current'!$D$38,'set current'!$D$47,'set current'!$D$56,'set current'!$D$65,'set current'!$D$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4244,7 +4403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$2,'set current'!$D$11,'set current'!$D$20,'set current'!$D$29,'set current'!$D$38,'set current'!$D$47,'set current'!$D$56,'set current'!$D$65,'set current'!$D$74)</c:f>
+              <c:f>('set current'!$E$2,'set current'!$E$11,'set current'!$E$20,'set current'!$E$29,'set current'!$E$38,'set current'!$E$47,'set current'!$E$56,'set current'!$E$65,'set current'!$E$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4293,11 +4452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159450512"/>
-        <c:axId val="159451072"/>
+        <c:axId val="158698544"/>
+        <c:axId val="158699104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159450512"/>
+        <c:axId val="158698544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,7 +4502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4410,12 +4568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159451072"/>
+        <c:crossAx val="158699104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159451072"/>
+        <c:axId val="158699104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4619,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4528,7 +4685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159450512"/>
+        <c:crossAx val="158698544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4542,7 +4699,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4718,45 +4874,35 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4819,7 +4965,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4840,7 +4985,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$10,'set current'!$C$19,'set current'!$C$28,'set current'!$C$37,'set current'!$C$46,'set current'!$C$64)</c:f>
+              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4867,7 +5012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$10,'set current'!$D$19,'set current'!$D$28,'set current'!$D$37,'set current'!$D$46,'set current'!$D$64)</c:f>
+              <c:f>('set current'!$E$10,'set current'!$E$19,'set current'!$E$28,'set current'!$E$37,'set current'!$E$46,'set current'!$E$64)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4932,54 +5077,42 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5042,7 +5175,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5063,7 +5195,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$9,'set current'!$C$18,'set current'!$C$27,'set current'!$C$36,'set current'!$C$45,'set current'!$C$63,'set current'!$C$81)</c:f>
+              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5093,7 +5225,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$9,'set current'!$D$18,'set current'!$D$27,'set current'!$D$36,'set current'!$D$45,'set current'!$D$63,'set current'!$D$81)</c:f>
+              <c:f>('set current'!$E$9,'set current'!$E$18,'set current'!$E$27,'set current'!$E$36,'set current'!$E$45,'set current'!$E$63,'set current'!$E$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5161,63 +5293,49 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5280,7 +5398,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5301,7 +5418,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$8,'set current'!$C$17,'set current'!$C$26,'set current'!$C$35,'set current'!$C$44,'set current'!$C$53,'set current'!$C$62,'set current'!$C$80)</c:f>
+              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5334,7 +5451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$8,'set current'!$D$17,'set current'!$D$26,'set current'!$D$35,'set current'!$D$44,'set current'!$D$53,'set current'!$D$62,'set current'!$D$80)</c:f>
+              <c:f>('set current'!$E$8,'set current'!$E$17,'set current'!$E$26,'set current'!$E$35,'set current'!$E$44,'set current'!$E$53,'set current'!$E$62,'set current'!$E$80)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5405,72 +5522,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5533,7 +5634,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5554,7 +5654,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$7,'set current'!$C$16,'set current'!$C$25,'set current'!$C$34,'set current'!$C$43,'set current'!$C$52,'set current'!$C$61,'set current'!$C$70,'set current'!$C$79)</c:f>
+              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5590,7 +5690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
+              <c:f>('set current'!$E$7,'set current'!$E$16,'set current'!$E$25,'set current'!$E$34,'set current'!$E$43,'set current'!$E$52,'set current'!$E$61,'set current'!$E$70,'set current'!$E$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5664,72 +5764,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5792,7 +5876,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5813,7 +5896,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$6,'set current'!$C$15,'set current'!$C$24,'set current'!$C$33,'set current'!$C$42,'set current'!$C$51,'set current'!$C$60,'set current'!$C$69,'set current'!$C$78)</c:f>
+              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5849,7 +5932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
+              <c:f>('set current'!$E$6,'set current'!$E$15,'set current'!$E$24,'set current'!$E$33,'set current'!$E$42,'set current'!$E$51,'set current'!$E$60,'set current'!$E$69,'set current'!$E$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5923,72 +6006,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6051,7 +6118,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6072,7 +6138,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$5,'set current'!$C$14,'set current'!$C$23,'set current'!$C$32,'set current'!$C$41,'set current'!$C$50,'set current'!$C$59,'set current'!$C$68,'set current'!$C$77)</c:f>
+              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6108,7 +6174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
+              <c:f>('set current'!$E$5,'set current'!$E$14,'set current'!$E$23,'set current'!$E$32,'set current'!$E$41,'set current'!$E$50,'set current'!$E$59,'set current'!$E$68,'set current'!$E$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6182,72 +6248,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6310,7 +6360,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6331,7 +6380,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$4,'set current'!$C$13,'set current'!$C$22,'set current'!$C$31,'set current'!$C$40,'set current'!$C$49,'set current'!$C$58,'set current'!$C$67,'set current'!$C$76)</c:f>
+              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6367,7 +6416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
+              <c:f>('set current'!$E$4,'set current'!$E$13,'set current'!$E$22,'set current'!$E$31,'set current'!$E$40,'set current'!$E$49,'set current'!$E$58,'set current'!$E$67,'set current'!$E$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6441,72 +6490,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6569,7 +6602,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6590,7 +6622,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$3,'set current'!$C$12,'set current'!$C$21,'set current'!$C$30,'set current'!$C$39,'set current'!$C$48,'set current'!$C$57,'set current'!$C$66,'set current'!$C$75)</c:f>
+              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6626,7 +6658,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
+              <c:f>('set current'!$E$3,'set current'!$E$12,'set current'!$E$21,'set current'!$E$30,'set current'!$E$39,'set current'!$E$48,'set current'!$E$57,'set current'!$E$66,'set current'!$E$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6675,11 +6707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240530128"/>
-        <c:axId val="240528448"/>
+        <c:axId val="157308560"/>
+        <c:axId val="157309120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240530128"/>
+        <c:axId val="157308560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6792,12 +6824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240528448"/>
+        <c:crossAx val="157309120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240528448"/>
+        <c:axId val="157309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6910,7 +6942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240530128"/>
+        <c:crossAx val="157308560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7076,45 +7108,35 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7177,7 +7199,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7198,7 +7219,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$74:$J$82</c:f>
+              <c:f>'set current'!$L$74:$L$82</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7225,7 +7246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$74:$I$82</c:f>
+              <c:f>'set current'!$K$74:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7290,54 +7311,42 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7400,7 +7409,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7421,7 +7429,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$65:$J$73</c:f>
+              <c:f>'set current'!$L$65:$L$73</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7451,7 +7459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$65:$I$73</c:f>
+              <c:f>'set current'!$K$65:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7519,63 +7527,49 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7638,7 +7632,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7659,7 +7652,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$56:$J$64</c:f>
+              <c:f>'set current'!$L$56:$L$64</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7692,7 +7685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$56:$I$64</c:f>
+              <c:f>'set current'!$K$56:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7763,72 +7756,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7891,7 +7868,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7912,7 +7888,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$47:$J$55</c:f>
+              <c:f>'set current'!$L$47:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7948,7 +7924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$47:$I$55</c:f>
+              <c:f>'set current'!$K$47:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8022,72 +7998,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8150,7 +8110,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8171,7 +8130,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$38:$J$46</c:f>
+              <c:f>'set current'!$L$38:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8207,7 +8166,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$38:$I$46</c:f>
+              <c:f>'set current'!$K$38:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8281,72 +8240,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8409,7 +8352,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8430,7 +8372,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$29:$J$37</c:f>
+              <c:f>'set current'!$L$29:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8466,7 +8408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$29:$I$37</c:f>
+              <c:f>'set current'!$K$29:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8540,72 +8482,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8668,7 +8594,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8689,7 +8614,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$20:$J$28</c:f>
+              <c:f>'set current'!$L$20:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8725,7 +8650,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$20:$I$28</c:f>
+              <c:f>'set current'!$K$20:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8799,72 +8724,56 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8956,7 +8865,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8977,7 +8885,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'set current'!$J$11:$J$19</c:f>
+              <c:f>'set current'!$L$11:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9013,7 +8921,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'set current'!$I$11:$I$19</c:f>
+              <c:f>'set current'!$K$11:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9062,11 +8970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233362352"/>
-        <c:axId val="235108528"/>
+        <c:axId val="157708080"/>
+        <c:axId val="157708640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233362352"/>
+        <c:axId val="157708080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9179,12 +9087,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235108528"/>
+        <c:crossAx val="157708640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235108528"/>
+        <c:axId val="157708640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9297,7 +9205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233362352"/>
+        <c:crossAx val="157708080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9487,7 +9395,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$2,'set current'!$C$11,'set current'!$C$20,'set current'!$C$29,'set current'!$C$38,'set current'!$C$47,'set current'!$C$56,'set current'!$C$65,'set current'!$C$74)</c:f>
+              <c:f>('set current'!$D$2,'set current'!$D$11,'set current'!$D$20,'set current'!$D$29,'set current'!$D$38,'set current'!$D$47,'set current'!$D$56,'set current'!$D$65,'set current'!$D$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9523,7 +9431,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$2,'set current'!$D$11,'set current'!$D$20,'set current'!$D$29,'set current'!$D$38,'set current'!$D$47,'set current'!$D$56,'set current'!$D$65,'set current'!$D$74)</c:f>
+              <c:f>('set current'!$E$2,'set current'!$E$11,'set current'!$E$20,'set current'!$E$29,'set current'!$E$38,'set current'!$E$47,'set current'!$E$56,'set current'!$E$65,'set current'!$E$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9572,11 +9480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159016608"/>
-        <c:axId val="159017168"/>
+        <c:axId val="157711440"/>
+        <c:axId val="157712000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159016608"/>
+        <c:axId val="157711440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9688,12 +9596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159017168"/>
+        <c:crossAx val="157712000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159017168"/>
+        <c:axId val="157712000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9805,7 +9713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159016608"/>
+        <c:crossAx val="157711440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10050,7 +9958,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$3,'set current'!$C$12,'set current'!$C$21,'set current'!$C$30,'set current'!$C$39,'set current'!$C$48,'set current'!$C$57,'set current'!$C$66,'set current'!$C$75)</c:f>
+              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10086,7 +9994,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$3,'set current'!$D$12,'set current'!$D$21,'set current'!$D$30,'set current'!$D$39,'set current'!$D$48,'set current'!$D$57,'set current'!$D$66,'set current'!$D$75)</c:f>
+              <c:f>('set current'!$E$3,'set current'!$E$12,'set current'!$E$21,'set current'!$E$30,'set current'!$E$39,'set current'!$E$48,'set current'!$E$57,'set current'!$E$66,'set current'!$E$75)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10135,11 +10043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159019408"/>
-        <c:axId val="159019968"/>
+        <c:axId val="157714240"/>
+        <c:axId val="156419104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159019408"/>
+        <c:axId val="157714240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10251,12 +10159,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159019968"/>
+        <c:crossAx val="156419104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159019968"/>
+        <c:axId val="156419104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10368,7 +10276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159019408"/>
+        <c:crossAx val="157714240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10609,7 +10517,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$4,'set current'!$C$13,'set current'!$C$22,'set current'!$C$31,'set current'!$C$40,'set current'!$C$49,'set current'!$C$58,'set current'!$C$67,'set current'!$C$76)</c:f>
+              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10645,7 +10553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$4,'set current'!$D$13,'set current'!$D$22,'set current'!$D$31,'set current'!$D$40,'set current'!$D$49,'set current'!$D$58,'set current'!$D$67,'set current'!$D$76)</c:f>
+              <c:f>('set current'!$E$4,'set current'!$E$13,'set current'!$E$22,'set current'!$E$31,'set current'!$E$40,'set current'!$E$49,'set current'!$E$58,'set current'!$E$67,'set current'!$E$76)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10694,11 +10602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159022208"/>
-        <c:axId val="159022768"/>
+        <c:axId val="156421344"/>
+        <c:axId val="156421904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159022208"/>
+        <c:axId val="156421344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,12 +10718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159022768"/>
+        <c:crossAx val="156421904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159022768"/>
+        <c:axId val="156421904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10927,7 +10835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159022208"/>
+        <c:crossAx val="156421344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11162,7 +11070,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$5,'set current'!$C$14,'set current'!$C$23,'set current'!$C$32,'set current'!$C$41,'set current'!$C$50,'set current'!$C$59,'set current'!$C$68,'set current'!$C$77)</c:f>
+              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11198,7 +11106,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$5,'set current'!$D$14,'set current'!$D$23,'set current'!$D$32,'set current'!$D$41,'set current'!$D$50,'set current'!$D$59,'set current'!$D$68,'set current'!$D$77)</c:f>
+              <c:f>('set current'!$E$5,'set current'!$E$14,'set current'!$E$23,'set current'!$E$32,'set current'!$E$41,'set current'!$E$50,'set current'!$E$59,'set current'!$E$68,'set current'!$E$77)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11247,11 +11155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159025008"/>
-        <c:axId val="159025568"/>
+        <c:axId val="156424144"/>
+        <c:axId val="156424704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159025008"/>
+        <c:axId val="156424144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11363,12 +11271,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159025568"/>
+        <c:crossAx val="156424704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159025568"/>
+        <c:axId val="156424704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11480,7 +11388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159025008"/>
+        <c:crossAx val="156424144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11715,7 +11623,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$6,'set current'!$C$15,'set current'!$C$24,'set current'!$C$33,'set current'!$C$42,'set current'!$C$51,'set current'!$C$60,'set current'!$C$69,'set current'!$C$78)</c:f>
+              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11751,7 +11659,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$6,'set current'!$D$15,'set current'!$D$24,'set current'!$D$33,'set current'!$D$42,'set current'!$D$51,'set current'!$D$60,'set current'!$D$69,'set current'!$D$78)</c:f>
+              <c:f>('set current'!$E$6,'set current'!$E$15,'set current'!$E$24,'set current'!$E$33,'set current'!$E$42,'set current'!$E$51,'set current'!$E$60,'set current'!$E$69,'set current'!$E$78)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11800,11 +11708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159027808"/>
-        <c:axId val="159028368"/>
+        <c:axId val="158403840"/>
+        <c:axId val="158404400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159027808"/>
+        <c:axId val="158403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11916,12 +11824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159028368"/>
+        <c:crossAx val="158404400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159028368"/>
+        <c:axId val="158404400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12033,7 +11941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159027808"/>
+        <c:crossAx val="158403840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12268,7 +12176,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('set current'!$C$7,'set current'!$C$16,'set current'!$C$25,'set current'!$C$34,'set current'!$C$43,'set current'!$C$52,'set current'!$C$61,'set current'!$C$70,'set current'!$C$79)</c:f>
+              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12304,7 +12212,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('set current'!$D$7,'set current'!$D$16,'set current'!$D$25,'set current'!$D$34,'set current'!$D$43,'set current'!$D$52,'set current'!$D$61,'set current'!$D$70,'set current'!$D$79)</c:f>
+              <c:f>('set current'!$E$7,'set current'!$E$16,'set current'!$E$25,'set current'!$E$34,'set current'!$E$43,'set current'!$E$52,'set current'!$E$61,'set current'!$E$70,'set current'!$E$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12353,11 +12261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159030608"/>
-        <c:axId val="159031168"/>
+        <c:axId val="158406640"/>
+        <c:axId val="158407200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159030608"/>
+        <c:axId val="158406640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12469,12 +12377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159031168"/>
+        <c:crossAx val="158407200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159031168"/>
+        <c:axId val="158407200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12586,7 +12494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159030608"/>
+        <c:crossAx val="158406640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19898,13 +19806,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>507545</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>208188</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
@@ -19914,7 +19822,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19936,13 +19844,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>195943</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>172811</xdr:rowOff>
@@ -19952,7 +19860,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19974,13 +19882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>681718</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
@@ -19990,7 +19898,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20033,7 +19941,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20071,7 +19979,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20109,7 +20017,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20147,7 +20055,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20185,7 +20093,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20223,7 +20131,7 @@
         <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20261,7 +20169,7 @@
         <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20299,7 +20207,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20337,7 +20245,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20375,7 +20283,7 @@
         <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20661,26 +20569,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -20688,1603 +20597,1651 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>0.1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="L2" s="24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>20</v>
       </c>
       <c r="C3" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="D3" s="1">
         <v>1783</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="H3" s="17">
         <v>5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="10">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="L3" s="24">
         <v>0.12</v>
       </c>
-      <c r="K3" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D4" s="1">
         <v>2333</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>7.93</v>
       </c>
-      <c r="E4" s="9">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H4" s="17">
         <v>10</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="L4" s="24">
         <v>-0.12</v>
       </c>
-      <c r="K4" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
+        <v>61.3</v>
+      </c>
+      <c r="D5" s="1">
         <v>2805</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>11.3</v>
       </c>
-      <c r="E5" s="9">
-        <v>61.3</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H5" s="17">
         <v>15</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="L5" s="24">
         <v>-0.12</v>
       </c>
-      <c r="K5" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
       <c r="B6" s="1">
         <v>80</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
+        <v>76.3</v>
+      </c>
+      <c r="D6" s="1">
         <v>3067</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>13.2</v>
       </c>
-      <c r="E6" s="9">
-        <v>76.3</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H6" s="17">
         <v>20</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
+      <c r="L6" s="24">
         <v>-0.27</v>
       </c>
-      <c r="K6" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
+        <v>109.1</v>
+      </c>
+      <c r="D7" s="1">
         <v>3505</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>16.86</v>
       </c>
-      <c r="E7" s="9">
-        <v>109.1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="H7" s="17">
         <v>25</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="L7" s="24">
         <v>-0.27</v>
       </c>
-      <c r="K7" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
       <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
+        <v>124.5</v>
+      </c>
+      <c r="D8" s="1">
         <v>3684</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="E8" s="9">
-        <v>124.5</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="H8" s="17">
         <v>30</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="10">
         <v>0</v>
       </c>
-      <c r="K8" s="14">
+      <c r="L8" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
       <c r="B9" s="1">
         <v>140</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
+        <v>142.6</v>
+      </c>
+      <c r="D9" s="1">
         <v>3887</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>20.5</v>
       </c>
-      <c r="E9" s="9">
-        <v>142.6</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="H9" s="17">
         <v>35</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="12">
         <v>0</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="L9" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
       <c r="B10" s="1">
         <v>160</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="D10" s="1">
         <v>4063</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>22.57</v>
       </c>
-      <c r="E10" s="9">
-        <v>163.19999999999999</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H10" s="17">
         <v>50</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="L10" s="24">
         <v>-0.27</v>
       </c>
-      <c r="K10" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.12</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="11">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K11" s="10">
         <v>1783</v>
       </c>
-      <c r="J11" s="11">
+      <c r="L11" s="24">
         <v>5</v>
       </c>
-      <c r="K11" s="11">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
       <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D12" s="1">
         <v>1746</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="H12" s="17">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12">
         <v>19.899999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="K12" s="10">
+        <v>1746</v>
+      </c>
+      <c r="L12" s="24">
         <v>5</v>
       </c>
-      <c r="H12" s="11">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1746</v>
-      </c>
-      <c r="J12" s="11">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="K12" s="14">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>40</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
+        <v>37.1</v>
+      </c>
+      <c r="D13" s="1">
         <v>2240</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="E13" s="9">
-        <v>37.1</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="H13" s="17">
         <v>10</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="11">
         <v>20</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="12">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K13" s="10">
         <v>1642</v>
       </c>
-      <c r="J13" s="11">
+      <c r="L13" s="24">
         <v>5.3</v>
       </c>
-      <c r="K13" s="14">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
       <c r="B14" s="1">
         <v>60</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
+        <v>59.1</v>
+      </c>
+      <c r="D14" s="1">
         <v>2688</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>11.59</v>
       </c>
-      <c r="E14" s="9">
-        <v>59.1</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="H14" s="17">
         <v>15</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="11">
         <v>20</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="12">
+        <v>23.7</v>
+      </c>
+      <c r="K14" s="10">
         <v>1710</v>
       </c>
-      <c r="J14" s="11">
+      <c r="L14" s="24">
         <v>6.6109999999999998</v>
       </c>
-      <c r="K14" s="14">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="B15" s="1">
         <v>80</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
+        <v>87.1</v>
+      </c>
+      <c r="D15" s="1">
         <v>3107</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>15.1</v>
       </c>
-      <c r="E15" s="9">
-        <v>87.1</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="H15" s="17">
         <v>20</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>20</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="12">
+        <v>21.1</v>
+      </c>
+      <c r="K15" s="10">
         <v>1503</v>
       </c>
-      <c r="J15" s="11">
+      <c r="L15" s="24">
         <v>6.6109999999999998</v>
       </c>
-      <c r="K15" s="14">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
       <c r="B16" s="1">
         <v>100</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
+        <v>102.8</v>
+      </c>
+      <c r="D16" s="1">
         <v>3288</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>17.010000000000002</v>
       </c>
-      <c r="E16" s="9">
-        <v>102.8</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H16" s="17">
         <v>25</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>20</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K16" s="10">
         <v>1342</v>
       </c>
-      <c r="J16" s="11">
+      <c r="L16" s="24">
         <v>6.6109999999999998</v>
       </c>
-      <c r="K16" s="14">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
       <c r="B17" s="1">
         <v>120</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
+        <v>117.7</v>
+      </c>
+      <c r="D17" s="1">
         <v>3465</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>18.62</v>
       </c>
-      <c r="E17" s="9">
-        <v>117.7</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="H17" s="17">
         <v>30</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>20</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="K17" s="10">
         <v>1276</v>
       </c>
-      <c r="J17" s="11">
+      <c r="L17" s="24">
         <v>8.3689999999999998</v>
       </c>
-      <c r="K17" s="14">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
       <c r="B18" s="1">
         <v>140</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="9">
+        <v>134.6</v>
+      </c>
+      <c r="D18" s="1">
         <v>3647</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>20.52</v>
       </c>
-      <c r="E18" s="9">
-        <v>134.6</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="H18" s="17">
         <v>35</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>20</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="12">
+        <v>19</v>
+      </c>
+      <c r="K18" s="10">
         <v>1066</v>
       </c>
-      <c r="J18" s="11">
+      <c r="L18" s="24">
         <v>8.3680000000000003</v>
       </c>
-      <c r="K18" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
       <c r="B19" s="1">
         <v>160</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
+        <v>154</v>
+      </c>
+      <c r="D19" s="1">
         <v>3830</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>22.57</v>
       </c>
-      <c r="E19" s="9">
-        <v>154</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="H19" s="17">
         <v>50</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>20</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="12">
+        <v>19</v>
+      </c>
+      <c r="K19" s="10">
         <v>494</v>
       </c>
-      <c r="J19" s="11">
+      <c r="L19" s="24">
         <v>17.3</v>
       </c>
-      <c r="K19" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>-0.12</v>
       </c>
-      <c r="E20" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="H20" s="17">
         <v>0</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>40</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="12">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K20" s="10">
         <v>2333</v>
       </c>
-      <c r="J20" s="11">
+      <c r="L20" s="24">
         <v>7.93</v>
       </c>
-      <c r="K20" s="14">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>1642</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>5.3</v>
       </c>
-      <c r="E21" s="9">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="H21" s="17">
         <v>5</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>40</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="12">
+        <v>37.1</v>
+      </c>
+      <c r="K21" s="10">
         <v>2240</v>
       </c>
-      <c r="J21" s="11">
+      <c r="L21" s="24">
         <v>8.2200000000000006</v>
       </c>
-      <c r="K21" s="14">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
       <c r="B22" s="1">
         <v>40</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="9">
+        <v>44.6</v>
+      </c>
+      <c r="D22" s="1">
         <v>2294</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>9.8320000000000007</v>
       </c>
-      <c r="E22" s="9">
+      <c r="H22" s="17">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11">
+        <v>40</v>
+      </c>
+      <c r="J22" s="12">
         <v>44.6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="K22" s="10">
+        <v>2294</v>
+      </c>
+      <c r="L22" s="24">
+        <v>9.8320000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="11">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2294</v>
-      </c>
-      <c r="J22" s="11">
-        <v>9.8320000000000007</v>
-      </c>
-      <c r="K22" s="14">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="9">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D23" s="1">
         <v>2695</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>13.2</v>
       </c>
-      <c r="E23" s="9">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="H23" s="17">
         <v>15</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>40</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="12">
+        <v>41.3</v>
+      </c>
+      <c r="K23" s="10">
         <v>2109</v>
       </c>
-      <c r="J23" s="11">
+      <c r="L23" s="24">
         <v>9.98</v>
       </c>
-      <c r="K23" s="14">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
       <c r="B24" s="1">
         <v>80</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="9">
+        <v>80.5</v>
+      </c>
+      <c r="D24" s="1">
         <v>2872</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>15.1</v>
       </c>
-      <c r="E24" s="9">
-        <v>80.5</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="H24" s="17">
         <v>20</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>40</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="12">
+        <v>44.8</v>
+      </c>
+      <c r="K24" s="10">
         <v>1995</v>
       </c>
-      <c r="J24" s="11">
+      <c r="L24" s="24">
         <v>11.73</v>
       </c>
-      <c r="K24" s="14">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
       <c r="B25" s="1">
         <v>100</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1">
         <v>3061</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>17.149999999999999</v>
       </c>
-      <c r="E25" s="9">
-        <v>96</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="H25" s="17">
         <v>25</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>40</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="12">
+        <v>40.6</v>
+      </c>
+      <c r="K25" s="10">
         <v>1774</v>
       </c>
-      <c r="J25" s="11">
+      <c r="L25" s="24">
         <v>11.59</v>
       </c>
-      <c r="K25" s="14">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
       <c r="B26" s="1">
         <v>120</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="9">
+        <v>124.6</v>
+      </c>
+      <c r="D26" s="1">
         <v>3355</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>20.5</v>
       </c>
-      <c r="E26" s="9">
-        <v>124.6</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="H26" s="17">
         <v>30</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>40</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="12">
+        <v>42.4</v>
+      </c>
+      <c r="K26" s="10">
         <v>1620</v>
       </c>
-      <c r="J26" s="11">
+      <c r="L26" s="24">
         <v>13.78</v>
       </c>
-      <c r="K26" s="14">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
       <c r="B27" s="1">
         <v>140</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="9">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D27" s="1">
         <v>3517</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>22.4</v>
       </c>
-      <c r="E27" s="9">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="H27" s="17">
         <v>35</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>40</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="12">
+        <v>41.9</v>
+      </c>
+      <c r="K27" s="10">
         <v>1415</v>
       </c>
-      <c r="J27" s="11">
+      <c r="L27" s="24">
         <v>15.25</v>
       </c>
-      <c r="K27" s="14">
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
       <c r="B28" s="1">
         <v>160</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="9">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="D28" s="1">
         <v>3672</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>24.33</v>
       </c>
-      <c r="E28" s="9">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="H28" s="17">
         <v>50</v>
       </c>
-      <c r="H28" s="11">
+      <c r="I28" s="11">
         <v>40</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="12">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K28" s="10">
         <v>629</v>
       </c>
-      <c r="J28" s="11">
+      <c r="L28" s="24">
         <v>29.6</v>
       </c>
-      <c r="K28" s="14">
-        <v>40.700000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>15</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>-0.12</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="H29" s="17">
         <v>0</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="11">
         <v>60</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="12">
+        <v>61.3</v>
+      </c>
+      <c r="K29" s="10">
         <v>2805</v>
       </c>
-      <c r="J29" s="11">
+      <c r="L29" s="24">
         <v>11.3</v>
       </c>
-      <c r="K29" s="14">
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="D30" s="1">
         <v>1710</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>6.6109999999999998</v>
       </c>
-      <c r="E30" s="9">
-        <v>23.7</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="H30" s="17">
         <v>5</v>
       </c>
-      <c r="H30" s="11">
+      <c r="I30" s="11">
         <v>60</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="12">
+        <v>59.1</v>
+      </c>
+      <c r="K30" s="10">
         <v>2688</v>
       </c>
-      <c r="J30" s="11">
+      <c r="L30" s="24">
         <v>11.59</v>
       </c>
-      <c r="K30" s="14">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>40</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="9">
+        <v>41.3</v>
+      </c>
+      <c r="D31" s="1">
         <v>2109</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>9.98</v>
       </c>
-      <c r="E31" s="9">
-        <v>41.3</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="H31" s="17">
         <v>10</v>
       </c>
-      <c r="H31" s="11">
+      <c r="I31" s="11">
         <v>60</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="12">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="K31" s="10">
         <v>2695</v>
       </c>
-      <c r="J31" s="11">
+      <c r="L31" s="24">
         <v>13.2</v>
       </c>
-      <c r="K31" s="14">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="D32" s="1">
         <v>2435</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>13.35</v>
       </c>
-      <c r="E32" s="9">
+      <c r="H32" s="17">
+        <v>15</v>
+      </c>
+      <c r="I32" s="11">
+        <v>60</v>
+      </c>
+      <c r="J32" s="12">
         <v>61.4</v>
       </c>
-      <c r="G32" s="1">
-        <v>15</v>
-      </c>
-      <c r="H32" s="11">
-        <v>60</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="K32" s="10">
         <v>2435</v>
       </c>
-      <c r="J32" s="11">
+      <c r="L32" s="24">
         <v>13.35</v>
       </c>
-      <c r="K32" s="14">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>80</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="9">
+        <v>86.9</v>
+      </c>
+      <c r="D33" s="1">
         <v>2782</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>17.010000000000002</v>
       </c>
-      <c r="E33" s="9">
-        <v>86.9</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="H33" s="17">
         <v>20</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="11">
         <v>60</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="12">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="K33" s="10">
         <v>2275</v>
       </c>
-      <c r="J33" s="11">
+      <c r="L33" s="24">
         <v>15.1</v>
       </c>
-      <c r="K33" s="14">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>100</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="9">
+        <v>100.1</v>
+      </c>
+      <c r="D34" s="1">
         <v>2920</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>18.760000000000002</v>
       </c>
-      <c r="E34" s="9">
-        <v>100.1</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="H34" s="17">
         <v>25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I34" s="11">
         <v>60</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="K34" s="10">
         <v>1992</v>
       </c>
-      <c r="J34" s="11">
+      <c r="L34" s="24">
         <v>15.25</v>
       </c>
-      <c r="K34" s="14">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>120</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="9">
+        <v>114.6</v>
+      </c>
+      <c r="D35" s="1">
         <v>3071</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>20.52</v>
       </c>
-      <c r="E35" s="9">
-        <v>114.6</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="H35" s="17">
         <v>30</v>
       </c>
-      <c r="H35" s="11">
+      <c r="I35" s="11">
         <v>60</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="12">
+        <v>58.3</v>
+      </c>
+      <c r="K35" s="10">
         <v>1817</v>
       </c>
-      <c r="J35" s="11">
+      <c r="L35" s="24">
         <v>17.149999999999999</v>
       </c>
-      <c r="K35" s="14">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>140</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="9">
+        <v>144.1</v>
+      </c>
+      <c r="D36" s="1">
         <v>3316</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>24.33</v>
       </c>
-      <c r="E36" s="9">
-        <v>144.1</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="H36" s="17">
         <v>35</v>
       </c>
-      <c r="H36" s="11">
+      <c r="I36" s="11">
         <v>60</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="12">
+        <v>55.3</v>
+      </c>
+      <c r="K36" s="10">
         <v>1543</v>
       </c>
-      <c r="J36" s="11">
+      <c r="L36" s="24">
         <v>18.91</v>
       </c>
-      <c r="K36" s="14">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>160</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="9">
+        <v>158.9</v>
+      </c>
+      <c r="D37" s="1">
         <v>3440</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>25.94</v>
       </c>
-      <c r="E37" s="9">
-        <v>158.9</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="H37" s="17">
         <v>50</v>
       </c>
-      <c r="H37" s="11">
+      <c r="I37" s="11">
         <v>60</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="12">
+        <v>60.3</v>
+      </c>
+      <c r="K37" s="10">
         <v>732</v>
       </c>
-      <c r="J37" s="11">
+      <c r="L37" s="24">
         <v>38.229999999999997</v>
       </c>
-      <c r="K37" s="14">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>20</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>-0.27</v>
       </c>
-      <c r="E38" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="H38" s="17">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="11">
         <v>80</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="12">
+        <v>76.3</v>
+      </c>
+      <c r="K38" s="10">
         <v>3067</v>
       </c>
-      <c r="J38" s="11">
+      <c r="L38" s="24">
         <v>13.2</v>
       </c>
-      <c r="K38" s="14">
-        <v>76.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>20</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="D39" s="1">
         <v>1503</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>6.6109999999999998</v>
       </c>
-      <c r="E39" s="9">
-        <v>21.1</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="H39" s="17">
         <v>5</v>
       </c>
-      <c r="H39" s="11">
+      <c r="I39" s="11">
         <v>80</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="12">
+        <v>87.1</v>
+      </c>
+      <c r="K39" s="10">
         <v>3107</v>
       </c>
-      <c r="J39" s="11">
+      <c r="L39" s="24">
         <v>15.1</v>
       </c>
-      <c r="K39" s="14">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>40</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="9">
+        <v>44.8</v>
+      </c>
+      <c r="D40" s="1">
         <v>1995</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>11.73</v>
       </c>
-      <c r="E40" s="9">
-        <v>44.8</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="H40" s="17">
         <v>10</v>
       </c>
-      <c r="H40" s="11">
+      <c r="I40" s="11">
         <v>80</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="12">
+        <v>80.5</v>
+      </c>
+      <c r="K40" s="10">
         <v>2872</v>
       </c>
-      <c r="J40" s="11">
+      <c r="L40" s="24">
         <v>15.1</v>
       </c>
-      <c r="K40" s="14">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>60</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="9">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D41" s="1">
         <v>2275</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>15.1</v>
       </c>
-      <c r="E41" s="9">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="H41" s="17">
         <v>15</v>
       </c>
-      <c r="H41" s="11">
+      <c r="I41" s="11">
         <v>80</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="12">
+        <v>86.9</v>
+      </c>
+      <c r="K41" s="10">
         <v>2782</v>
       </c>
-      <c r="J41" s="11">
+      <c r="L41" s="24">
         <v>17.010000000000002</v>
       </c>
-      <c r="K41" s="14">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>80</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="9">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D42" s="1">
         <v>2412</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>17.010000000000002</v>
       </c>
-      <c r="E42" s="9">
+      <c r="H42" s="17">
+        <v>20</v>
+      </c>
+      <c r="I42" s="11">
+        <v>80</v>
+      </c>
+      <c r="J42" s="12">
         <v>76.099999999999994</v>
       </c>
-      <c r="G42" s="1">
-        <v>20</v>
-      </c>
-      <c r="H42" s="11">
-        <v>80</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="K42" s="10">
         <v>2412</v>
       </c>
-      <c r="J42" s="11">
+      <c r="L42" s="24">
         <v>17.010000000000002</v>
       </c>
-      <c r="K42" s="14">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>100</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
+        <v>98.8</v>
+      </c>
+      <c r="D43" s="1">
         <v>2643</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>20.52</v>
       </c>
-      <c r="E43" s="9">
-        <v>98.8</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="H43" s="17">
         <v>25</v>
       </c>
-      <c r="H43" s="11">
+      <c r="I43" s="11">
         <v>80</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="12">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K43" s="10">
         <v>2246</v>
       </c>
-      <c r="J43" s="11">
+      <c r="L43" s="24">
         <v>18.62</v>
       </c>
-      <c r="K43" s="14">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>120</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="9">
+        <v>118.9</v>
+      </c>
+      <c r="D44" s="1">
         <v>2911</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>24.18</v>
       </c>
-      <c r="E44" s="9">
-        <v>118.9</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="H44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="11">
+      <c r="I44" s="11">
         <v>80</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="12">
+        <v>86.5</v>
+      </c>
+      <c r="K44" s="10">
         <v>2090</v>
       </c>
-      <c r="J44" s="11">
+      <c r="L44" s="24">
         <v>22.57</v>
       </c>
-      <c r="K44" s="14">
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>140</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="9">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="D45" s="1">
         <v>2995</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>25.94</v>
       </c>
-      <c r="E45" s="9">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="H45" s="17">
         <v>35</v>
       </c>
-      <c r="H45" s="11">
+      <c r="I45" s="11">
         <v>80</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="12">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K45" s="10">
         <v>1806</v>
       </c>
-      <c r="J45" s="11">
+      <c r="L45" s="24">
         <v>24.33</v>
       </c>
-      <c r="K45" s="14">
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>160</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="9">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="D46" s="1">
         <v>3123</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>27.84</v>
       </c>
-      <c r="E46" s="9">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="H46" s="17">
         <v>50</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I46" s="11">
         <v>80</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="12">
+        <v>74</v>
+      </c>
+      <c r="K46" s="10">
         <v>828</v>
       </c>
-      <c r="J46" s="11">
+      <c r="L46" s="24">
         <v>43.94</v>
       </c>
-      <c r="K46" s="14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>25</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>-0.27</v>
       </c>
-      <c r="E47" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="H47" s="17">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
+      <c r="I47" s="11">
         <v>100</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="12">
+        <v>109.1</v>
+      </c>
+      <c r="K47" s="10">
         <v>3505</v>
       </c>
-      <c r="J47" s="11">
+      <c r="L47" s="24">
         <v>16.86</v>
       </c>
-      <c r="K47" s="14">
-        <v>109.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>20</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D48" s="1">
         <v>1342</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>6.6109999999999998</v>
       </c>
-      <c r="E48" s="9">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="H48" s="17">
         <v>5</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I48" s="11">
         <v>100</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="12">
+        <v>102.8</v>
+      </c>
+      <c r="K48" s="10">
         <v>3288</v>
       </c>
-      <c r="J48" s="11">
+      <c r="L48" s="24">
         <v>17.010000000000002</v>
       </c>
-      <c r="K48" s="14">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>40</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="9">
+        <v>40.6</v>
+      </c>
+      <c r="D49" s="1">
         <v>1774</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>11.59</v>
       </c>
-      <c r="E49" s="9">
-        <v>40.6</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="H49" s="17">
         <v>10</v>
       </c>
-      <c r="H49" s="11">
+      <c r="I49" s="11">
         <v>100</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="12">
+        <v>96</v>
+      </c>
+      <c r="K49" s="10">
         <v>3061</v>
       </c>
-      <c r="J49" s="11">
+      <c r="L49" s="24">
         <v>17.149999999999999</v>
       </c>
-      <c r="K49" s="14">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>60</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="9">
+        <v>57.1</v>
+      </c>
+      <c r="D50" s="1">
         <v>1992</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>15.25</v>
       </c>
-      <c r="E50" s="9">
-        <v>57.1</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="H50" s="17">
         <v>15</v>
       </c>
-      <c r="H50" s="11">
+      <c r="I50" s="11">
         <v>100</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="12">
+        <v>100.1</v>
+      </c>
+      <c r="K50" s="10">
         <v>2920</v>
       </c>
-      <c r="J50" s="11">
+      <c r="L50" s="24">
         <v>18.760000000000002</v>
       </c>
-      <c r="K50" s="14">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>80</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="9">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="D51" s="1">
         <v>2246</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>18.62</v>
       </c>
-      <c r="E51" s="9">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="H51" s="17">
         <v>20</v>
       </c>
-      <c r="H51" s="11">
+      <c r="I51" s="11">
         <v>100</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="12">
+        <v>98.8</v>
+      </c>
+      <c r="K51" s="10">
         <v>2643</v>
       </c>
-      <c r="J51" s="11">
+      <c r="L51" s="24">
         <v>20.52</v>
       </c>
-      <c r="K51" s="14">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>100</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="9">
+        <v>101.1</v>
+      </c>
+      <c r="D52" s="1">
         <v>2468</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>22.42</v>
       </c>
-      <c r="E52" s="9">
+      <c r="H52" s="17">
+        <v>25</v>
+      </c>
+      <c r="I52" s="11">
+        <v>100</v>
+      </c>
+      <c r="J52" s="12">
         <v>101.1</v>
       </c>
-      <c r="G52" s="1">
-        <v>25</v>
-      </c>
-      <c r="H52" s="11">
-        <v>100</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="K52" s="10">
         <v>2468</v>
       </c>
-      <c r="J52" s="11">
+      <c r="L52" s="24">
         <v>22.42</v>
       </c>
-      <c r="K52" s="14">
-        <v>101.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>120</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="9">
+        <v>124.5</v>
+      </c>
+      <c r="D53" s="1">
         <v>2652</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>25.94</v>
       </c>
-      <c r="E53" s="9">
-        <v>124.5</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="H53" s="17">
         <v>30</v>
       </c>
-      <c r="H53" s="11">
+      <c r="I53" s="11">
         <v>100</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="12">
+        <v>96.7</v>
+      </c>
+      <c r="K53" s="10">
         <v>2176</v>
       </c>
-      <c r="J53" s="11">
+      <c r="L53" s="24">
         <v>24.33</v>
       </c>
-      <c r="K53" s="14">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>140</v>
@@ -22292,23 +22249,23 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="G54" s="1">
+      <c r="H54" s="17">
         <v>35</v>
       </c>
-      <c r="H54" s="11">
+      <c r="I54" s="11">
         <v>100</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="12">
+        <v>100</v>
+      </c>
+      <c r="K54" s="10">
         <v>1950</v>
       </c>
-      <c r="J54" s="11">
+      <c r="L54" s="24">
         <v>28.84</v>
       </c>
-      <c r="K54" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>160</v>
@@ -22316,465 +22273,465 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="G55" s="1">
+      <c r="H55" s="17">
         <v>50</v>
       </c>
-      <c r="H55" s="11">
+      <c r="I55" s="11">
         <v>100</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="12">
+        <v>99.8</v>
+      </c>
+      <c r="K55" s="10">
         <v>938</v>
       </c>
-      <c r="J55" s="11">
+      <c r="L55" s="24">
         <v>50.09</v>
       </c>
-      <c r="K55" s="14">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>30</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="9">
         <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="17">
         <v>0</v>
       </c>
-      <c r="H56" s="11">
+      <c r="I56" s="11">
         <v>120</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="12">
+        <v>124.5</v>
+      </c>
+      <c r="K56" s="10">
         <v>3684</v>
       </c>
-      <c r="J56" s="11">
+      <c r="L56" s="24">
         <v>18.899999999999999</v>
       </c>
-      <c r="K56" s="14">
-        <v>124.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>20</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="D57" s="1">
         <v>1276</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>8.3689999999999998</v>
       </c>
-      <c r="E57" s="9">
-        <v>22.2</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="H57" s="17">
         <v>5</v>
       </c>
-      <c r="H57" s="11">
+      <c r="I57" s="11">
         <v>120</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="12">
+        <v>117.7</v>
+      </c>
+      <c r="K57" s="10">
         <v>3465</v>
       </c>
-      <c r="J57" s="11">
+      <c r="L57" s="24">
         <v>18.62</v>
       </c>
-      <c r="K57" s="14">
-        <v>117.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>40</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="9">
+        <v>42.4</v>
+      </c>
+      <c r="D58" s="1">
         <v>1620</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>13.78</v>
       </c>
-      <c r="E58" s="9">
-        <v>42.4</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="H58" s="17">
         <v>10</v>
       </c>
-      <c r="H58" s="11">
+      <c r="I58" s="11">
         <v>120</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="12">
+        <v>124.6</v>
+      </c>
+      <c r="K58" s="10">
         <v>3355</v>
       </c>
-      <c r="J58" s="11">
+      <c r="L58" s="24">
         <v>20.5</v>
       </c>
-      <c r="K58" s="14">
-        <v>124.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>60</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="9">
+        <v>58.3</v>
+      </c>
+      <c r="D59" s="1">
         <v>1817</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>17.149999999999999</v>
       </c>
-      <c r="E59" s="9">
-        <v>58.3</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="H59" s="17">
         <v>15</v>
       </c>
-      <c r="H59" s="11">
+      <c r="I59" s="11">
         <v>120</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="12">
+        <v>114.6</v>
+      </c>
+      <c r="K59" s="10">
         <v>3071</v>
       </c>
-      <c r="J59" s="11">
+      <c r="L59" s="24">
         <v>20.52</v>
       </c>
-      <c r="K59" s="14">
-        <v>114.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>80</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="9">
+        <v>86.5</v>
+      </c>
+      <c r="D60" s="1">
         <v>2090</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>22.57</v>
       </c>
-      <c r="E60" s="9">
-        <v>86.5</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="H60" s="17">
         <v>20</v>
       </c>
-      <c r="H60" s="11">
+      <c r="I60" s="11">
         <v>120</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="12">
+        <v>118.9</v>
+      </c>
+      <c r="K60" s="10">
         <v>2911</v>
       </c>
-      <c r="J60" s="11">
+      <c r="L60" s="24">
         <v>24.18</v>
       </c>
-      <c r="K60" s="14">
-        <v>118.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>100</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="9">
+        <v>96.7</v>
+      </c>
+      <c r="D61" s="1">
         <v>2176</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>24.33</v>
       </c>
-      <c r="E61" s="9">
-        <v>96.7</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="H61" s="17">
         <v>25</v>
       </c>
-      <c r="H61" s="11">
+      <c r="I61" s="11">
         <v>120</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="12">
+        <v>124.5</v>
+      </c>
+      <c r="K61" s="10">
         <v>2652</v>
       </c>
-      <c r="J61" s="11">
+      <c r="L61" s="24">
         <v>25.94</v>
       </c>
-      <c r="K61" s="14">
-        <v>124.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>120</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="9">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1">
         <v>2332</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>27.11</v>
       </c>
-      <c r="E62" s="9">
+      <c r="H62" s="17">
+        <v>30</v>
+      </c>
+      <c r="I62" s="11">
+        <v>120</v>
+      </c>
+      <c r="J62" s="12">
         <v>118</v>
       </c>
-      <c r="G62" s="1">
-        <v>30</v>
-      </c>
-      <c r="H62" s="11">
-        <v>120</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="K62" s="10">
         <v>2332</v>
       </c>
-      <c r="J62" s="11">
+      <c r="L62" s="24">
         <v>27.11</v>
       </c>
-      <c r="K62" s="14">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>140</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="9">
+        <v>141.6</v>
+      </c>
+      <c r="D63" s="1">
         <v>2490</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>31.25</v>
       </c>
-      <c r="E63" s="9">
-        <v>141.6</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="H63" s="17">
         <v>35</v>
       </c>
-      <c r="H63" s="11">
+      <c r="I63" s="11">
         <v>120</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>160</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="9">
+        <v>167.4</v>
+      </c>
+      <c r="D64" s="1">
         <v>2642</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>35.01</v>
       </c>
-      <c r="E64" s="9">
-        <v>167.4</v>
-      </c>
-      <c r="G64" s="1">
+      <c r="H64" s="17">
         <v>50</v>
       </c>
-      <c r="H64" s="11">
+      <c r="I64" s="11">
         <v>120</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="12">
+        <v>116.8</v>
+      </c>
+      <c r="K64" s="10">
         <v>955</v>
       </c>
-      <c r="J64" s="11">
+      <c r="L64" s="24">
         <v>57.27</v>
       </c>
-      <c r="K64" s="14">
-        <v>116.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>35</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="9">
         <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="17">
         <v>0</v>
       </c>
-      <c r="H65" s="11">
+      <c r="I65" s="11">
         <v>140</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="12">
+        <v>142.6</v>
+      </c>
+      <c r="K65" s="10">
         <v>3887</v>
       </c>
-      <c r="J65" s="11">
+      <c r="L65" s="24">
         <v>20.5</v>
       </c>
-      <c r="K65" s="14">
-        <v>142.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>20</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="9">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1">
         <v>1066</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>8.3680000000000003</v>
       </c>
-      <c r="E66" s="9">
-        <v>19</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="H66" s="17">
         <v>5</v>
       </c>
-      <c r="H66" s="11">
+      <c r="I66" s="11">
         <v>140</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="12">
+        <v>134.6</v>
+      </c>
+      <c r="K66" s="10">
         <v>3647</v>
       </c>
-      <c r="J66" s="11">
+      <c r="L66" s="24">
         <v>20.52</v>
       </c>
-      <c r="K66" s="14">
-        <v>134.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>40</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="9">
+        <v>41.9</v>
+      </c>
+      <c r="D67" s="1">
         <v>1415</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>15.25</v>
       </c>
-      <c r="E67" s="9">
-        <v>41.9</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="H67" s="17">
         <v>10</v>
       </c>
-      <c r="H67" s="11">
+      <c r="I67" s="11">
         <v>140</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="12">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="K67" s="10">
         <v>3517</v>
       </c>
-      <c r="J67" s="11">
+      <c r="L67" s="24">
         <v>22.4</v>
       </c>
-      <c r="K67" s="14">
-        <v>141.69999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>60</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="9">
+        <v>55.3</v>
+      </c>
+      <c r="D68" s="1">
         <v>1543</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>18.91</v>
       </c>
-      <c r="E68" s="9">
-        <v>55.3</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="H68" s="17">
         <v>15</v>
       </c>
-      <c r="H68" s="11">
+      <c r="I68" s="11">
         <v>140</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="12">
+        <v>144.1</v>
+      </c>
+      <c r="K68" s="10">
         <v>3316</v>
       </c>
-      <c r="J68" s="11">
+      <c r="L68" s="24">
         <v>24.33</v>
       </c>
-      <c r="K68" s="14">
-        <v>144.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>80</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="9">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D69" s="1">
         <v>1806</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>24.33</v>
       </c>
-      <c r="E69" s="9">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="H69" s="17">
         <v>20</v>
       </c>
-      <c r="H69" s="11">
+      <c r="I69" s="11">
         <v>140</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="12">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="K69" s="10">
         <v>2995</v>
       </c>
-      <c r="J69" s="11">
+      <c r="L69" s="24">
         <v>25.94</v>
       </c>
-      <c r="K69" s="14">
-        <v>139.69999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>100</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="9">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1">
         <v>1950</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>28.84</v>
       </c>
-      <c r="E70" s="9">
-        <v>100</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="H70" s="17">
         <v>25</v>
       </c>
-      <c r="H70" s="11">
+      <c r="I70" s="11">
         <v>140</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="14"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>120</v>
@@ -22782,23 +22739,23 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="G71" s="1">
+      <c r="H71" s="17">
         <v>30</v>
       </c>
-      <c r="H71" s="11">
+      <c r="I71" s="11">
         <v>140</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="12">
+        <v>141.6</v>
+      </c>
+      <c r="K71" s="10">
         <v>2490</v>
       </c>
-      <c r="J71" s="11">
+      <c r="L71" s="24">
         <v>31.25</v>
       </c>
-      <c r="K71" s="14">
-        <v>141.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>140</v>
@@ -22806,17 +22763,17 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="G72" s="1">
+      <c r="H72" s="17">
         <v>35</v>
       </c>
-      <c r="H72" s="11">
+      <c r="I72" s="11">
         <v>140</v>
       </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="14"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="18"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>160</v>
@@ -22824,253 +22781,253 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="G73" s="1">
+      <c r="H73" s="17">
         <v>50</v>
       </c>
-      <c r="H73" s="11">
+      <c r="I73" s="11">
         <v>140</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="12">
+        <v>137.5</v>
+      </c>
+      <c r="K73" s="10">
         <v>1031</v>
       </c>
-      <c r="J73" s="11">
+      <c r="L73" s="24">
         <v>62.24</v>
       </c>
-      <c r="K73" s="14">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>50</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>-0.27</v>
       </c>
-      <c r="E74" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G74" s="1">
+      <c r="H74" s="17">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
+      <c r="I74" s="11">
         <v>160</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="12">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="K74" s="10">
         <v>4063</v>
       </c>
-      <c r="J74" s="11">
+      <c r="L74" s="24">
         <v>22.57</v>
       </c>
-      <c r="K74" s="14">
-        <v>163.19999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>20</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="9">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1">
         <v>494</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>17.3</v>
       </c>
-      <c r="E75" s="9">
-        <v>19</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="H75" s="17">
         <v>5</v>
       </c>
-      <c r="H75" s="11">
+      <c r="I75" s="11">
         <v>160</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="12">
+        <v>154</v>
+      </c>
+      <c r="K75" s="10">
         <v>3830</v>
       </c>
-      <c r="J75" s="11">
+      <c r="L75" s="24">
         <v>22.57</v>
       </c>
-      <c r="K75" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <v>40</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D76" s="1">
         <v>629</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>29.6</v>
       </c>
-      <c r="E76" s="9">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="H76" s="17">
         <v>10</v>
       </c>
-      <c r="H76" s="11">
+      <c r="I76" s="11">
         <v>160</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="12">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="K76" s="10">
         <v>3672</v>
       </c>
-      <c r="J76" s="11">
+      <c r="L76" s="24">
         <v>24.33</v>
       </c>
-      <c r="K76" s="14">
-        <v>159.30000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>60</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="9">
+        <v>60.3</v>
+      </c>
+      <c r="D77" s="1">
         <v>732</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>38.229999999999997</v>
       </c>
-      <c r="E77" s="9">
-        <v>60.3</v>
-      </c>
-      <c r="G77" s="1">
+      <c r="H77" s="17">
         <v>15</v>
       </c>
-      <c r="H77" s="11">
+      <c r="I77" s="11">
         <v>160</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="12">
+        <v>158.9</v>
+      </c>
+      <c r="K77" s="10">
         <v>3440</v>
       </c>
-      <c r="J77" s="11">
+      <c r="L77" s="24">
         <v>25.94</v>
       </c>
-      <c r="K77" s="14">
-        <v>158.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>80</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="9">
+        <v>74</v>
+      </c>
+      <c r="D78" s="1">
         <v>828</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>43.94</v>
       </c>
-      <c r="E78" s="9">
-        <v>74</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="H78" s="17">
         <v>20</v>
       </c>
-      <c r="H78" s="11">
+      <c r="I78" s="11">
         <v>160</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="12">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="K78" s="10">
         <v>3123</v>
       </c>
-      <c r="J78" s="11">
+      <c r="L78" s="24">
         <v>27.84</v>
       </c>
-      <c r="K78" s="14">
-        <v>156.19999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>100</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="9">
+        <v>99.8</v>
+      </c>
+      <c r="D79" s="1">
         <v>938</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>50.09</v>
       </c>
-      <c r="E79" s="9">
-        <v>99.8</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="H79" s="17">
         <v>25</v>
       </c>
-      <c r="H79" s="11">
+      <c r="I79" s="11">
         <v>160</v>
       </c>
-      <c r="I79" s="8"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="14"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="18"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>120</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="9">
+        <v>116.8</v>
+      </c>
+      <c r="D80" s="1">
         <v>955</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>57.27</v>
       </c>
-      <c r="E80" s="9">
-        <v>116.8</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="H80" s="17">
         <v>30</v>
       </c>
-      <c r="H80" s="11">
+      <c r="I80" s="11">
         <v>160</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="12">
+        <v>167.4</v>
+      </c>
+      <c r="K80" s="10">
         <v>2642</v>
       </c>
-      <c r="J80" s="11">
+      <c r="L80" s="24">
         <v>35.01</v>
       </c>
-      <c r="K80" s="14">
-        <v>167.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>140</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="9">
+        <v>137.5</v>
+      </c>
+      <c r="D81" s="1">
         <v>1031</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>62.24</v>
       </c>
-      <c r="E81" s="9">
-        <v>137.5</v>
-      </c>
-      <c r="G81" s="1">
+      <c r="H81" s="17">
         <v>35</v>
       </c>
-      <c r="H81" s="11">
+      <c r="I81" s="11">
         <v>160</v>
       </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J81" s="14"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="18"/>
+    </row>
+    <row r="82" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>160</v>
@@ -23078,19 +23035,19 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="G82" s="1">
+      <c r="H82" s="19">
         <v>50</v>
       </c>
-      <c r="H82" s="11">
+      <c r="I82" s="20">
         <v>160</v>
       </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="G2:K82">
-    <sortCondition ref="H2:H82"/>
+  <sortState ref="H2:L82">
+    <sortCondition ref="I2:I82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
